--- a/Selección/Graficas.xlsx
+++ b/Selección/Graficas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Andrés\Universidad\QUINTO SEMESTRE\Ciencias de la computación\Analisis-de-tiempo\Selección\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estudiantes\Desktop\Analisis-de-tiempo\Selección\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,102 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>N</t>
   </si>
   <si>
     <t>t(N)</t>
-  </si>
-  <si>
-    <t>0.00114036</t>
-  </si>
-  <si>
-    <t>0.00342109</t>
-  </si>
-  <si>
-    <t>0.00684219</t>
-  </si>
-  <si>
-    <t>0.0142546</t>
-  </si>
-  <si>
-    <t>0.0176757</t>
-  </si>
-  <si>
-    <t>0.0610095</t>
-  </si>
-  <si>
-    <t>0.000570182</t>
-  </si>
-  <si>
-    <t>0.00285091</t>
-  </si>
-  <si>
-    <t>0.00456146</t>
-  </si>
-  <si>
-    <t>0.00912292</t>
-  </si>
-  <si>
-    <t>0.0114036</t>
-  </si>
-  <si>
-    <t>0.0210967</t>
-  </si>
-  <si>
-    <t>0.0245178</t>
-  </si>
-  <si>
-    <t>0.0290793</t>
-  </si>
-  <si>
-    <t>0.0336408</t>
-  </si>
-  <si>
-    <t>0.0387724</t>
-  </si>
-  <si>
-    <t>0.043904</t>
-  </si>
-  <si>
-    <t>0.0490357</t>
-  </si>
-  <si>
-    <t>0.0547375</t>
-  </si>
-  <si>
-    <t>0.0672815</t>
-  </si>
-  <si>
-    <t>0.0741237</t>
-  </si>
-  <si>
-    <t>0.0826764</t>
-  </si>
-  <si>
-    <t>0.0895186</t>
-  </si>
-  <si>
-    <t>0.0963608</t>
-  </si>
-  <si>
-    <t>0.104914</t>
-  </si>
-  <si>
-    <t>0.113466</t>
-  </si>
-  <si>
-    <t>0.122589</t>
-  </si>
-  <si>
-    <t>0.131142</t>
-  </si>
-  <si>
-    <t>0.140835</t>
-  </si>
-  <si>
-    <t>0.149958</t>
   </si>
   <si>
     <t>Tiempo de máquina</t>
@@ -243,6 +153,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -662,89 +573,469 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>N vs Tiempo de Máquina</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> vs Tiempo de máquina</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            </a:rPr>
-            <a:t>N vs Tiempo de Máquina</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{8327904F-77A5-417B-AE23-E4F89C5D5396}" formatIdx="0">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{C4FE8D1F-3C28-4021-A36B-268D724DD48D}" formatIdx="2">
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{B885628E-458B-4552-A1F9-5920D6F70846}" formatIdx="1">
-          <cx:axisId val="2"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{C91B9362-9938-4CEE-A26A-2361B84241C3}" formatIdx="3">
-          <cx:axisId val="2"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$37:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$37:$C$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5.7018200000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14036E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8509099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4210899999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5614599999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8421899999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1229199999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14036E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4254599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7675699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1096699999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4517799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9079299999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3640799999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8772399999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3903999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9035700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4737500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1009500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7281499999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4123700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.2676399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.9518600000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6360799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.10491399999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.113466</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.122589</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.13114200000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.14083499999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14995800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03B7-4450-B172-23561577D555}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="252167968"/>
+        <c:axId val="252169216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="252167968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252169216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="252169216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252167968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1344,7 +1635,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1355,7 +1646,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1378,7 +1669,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1401,7 +1692,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1409,11 +1700,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1438,14 +1729,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1460,7 +1751,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1477,7 +1768,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -1492,8 +1783,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1506,7 +1799,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1516,13 +1809,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1541,16 +1834,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -1621,6 +1916,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1652,8 +1953,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1708,7 +2009,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1736,18 +2037,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1757,9 +2047,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1775,7 +2068,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1791,7 +2084,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1805,7 +2098,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1838,7 +2131,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1847,6 +2140,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1892,79 +2191,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>745190</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
+      <xdr:colOff>344366</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>134082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>745190</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>183776</xdr:rowOff>
+      <xdr:colOff>344366</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19782</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Gráfico 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1529BE51-1311-4FFF-B434-859F08691F6E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4756896" y="6965576"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-CO" sz="1100"/>
-                <a:t>Este gráfico no está disponible en su versión de Excel.
-Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2269,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,31 +2839,31 @@
         <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
+      <c r="C37" s="1">
+        <v>5.7018200000000002E-4</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>10</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>2</v>
+      <c r="C38" s="1">
+        <v>1.14036E-3</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>9</v>
+      <c r="C39" s="1">
+        <v>2.8509099999999999E-3</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -2620,8 +2871,8 @@
         <f>B39+5</f>
         <v>20</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
+      <c r="C40" s="1">
+        <v>3.4210899999999999E-3</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -2629,8 +2880,8 @@
         <f t="shared" ref="B41:B66" si="2">B40+5</f>
         <v>25</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>10</v>
+      <c r="C41" s="1">
+        <v>4.5614599999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -2638,8 +2889,8 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>4</v>
+      <c r="C42" s="1">
+        <v>6.8421899999999997E-3</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -2647,8 +2898,8 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>11</v>
+      <c r="C43" s="1">
+        <v>9.1229199999999996E-3</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -2656,8 +2907,8 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
+      <c r="C44" s="1">
+        <v>1.14036E-2</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -2665,8 +2916,8 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>5</v>
+      <c r="C45" s="1">
+        <v>1.4254599999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -2674,8 +2925,8 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
+      <c r="C46" s="1">
+        <v>1.7675699999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -2683,8 +2934,8 @@
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>13</v>
+      <c r="C47" s="1">
+        <v>2.1096699999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -2692,8 +2943,8 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
+      <c r="C48" s="1">
+        <v>2.4517799999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -2701,8 +2952,8 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>15</v>
+      <c r="C49" s="1">
+        <v>2.9079299999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -2710,8 +2961,8 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>16</v>
+      <c r="C50" s="1">
+        <v>3.3640799999999998E-2</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -2719,8 +2970,8 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
+      <c r="C51" s="1">
+        <v>3.8772399999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -2728,8 +2979,8 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>18</v>
+      <c r="C52" s="1">
+        <v>4.3903999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -2737,8 +2988,8 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>19</v>
+      <c r="C53" s="1">
+        <v>4.9035700000000002E-2</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -2746,8 +2997,8 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>20</v>
+      <c r="C54" s="1">
+        <v>5.4737500000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -2755,8 +3006,8 @@
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
+      <c r="C55" s="1">
+        <v>6.1009500000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -2764,8 +3015,8 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>21</v>
+      <c r="C56" s="1">
+        <v>6.7281499999999994E-2</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -2773,8 +3024,8 @@
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>22</v>
+      <c r="C57" s="1">
+        <v>7.4123700000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -2782,8 +3033,8 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>23</v>
+      <c r="C58" s="1">
+        <v>8.2676399999999997E-2</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -2791,8 +3042,8 @@
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>24</v>
+      <c r="C59" s="1">
+        <v>8.9518600000000004E-2</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -2800,8 +3051,8 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>25</v>
+      <c r="C60" s="1">
+        <v>9.6360799999999996E-2</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -2809,8 +3060,8 @@
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>26</v>
+      <c r="C61" s="1">
+        <v>0.10491399999999999</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -2818,8 +3069,8 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>27</v>
+      <c r="C62" s="1">
+        <v>0.113466</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -2827,8 +3078,8 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>28</v>
+      <c r="C63" s="1">
+        <v>0.122589</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -2836,8 +3087,8 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>29</v>
+      <c r="C64" s="1">
+        <v>0.13114200000000001</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -2845,8 +3096,8 @@
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>30</v>
+      <c r="C65" s="1">
+        <v>0.14083499999999999</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -2854,12 +3105,13 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>31</v>
+      <c r="C66" s="1">
+        <v>0.14995800000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>